--- a/Translations/en-sl-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-sl-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Seznanjanje s skupino hrane sadja in zelenjave. Kompleksnost naloge se stopnjeva z napredovanjem: na začetku je poudarek na sadju in zelenjavi samo, nato pa se uvede igranje z njihovimi barvami.</t>
+          <t>Poiščite sadje in zelenjavo! Narežite jih, da si prislužite točke in spoznate njihovo hranilno vrednost in pisano paleto, koliko bi jih morali dnevno zaužiti, in pametne načine, kako jih dodati v svojo prehrano.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo plodove, ki jih vidite.</t>
+          <t>Vaša naloga je narezati sadje!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sadje je med živila, ki jih priporočamo, da jih porabite vsakodnevno. Na splošno je vaš končni cilj 2-3 sadje na dan. Izbira sadja kot prigrizek, v šoli ali popoldne vam bo pomagala doseči svoj dnevni cilj. Če želite to storiti, dajte prednostno plod: najprej pojejte sadje, potem pa karkoli drugega!</t>
+          <t>Sadje je med živili, ki bi jih morali uživati ​​vsak dan. Na splošno so 2-3 sadeži na dan vaš končni cilj. Če izberete sadje kot prigrizek, v šoli ali popoldan, vam bo pomagal doseči vaš dnevni cilj. Če želite to narediti, dajte sadju prednost: najprej pojejte sadje, nato karkoli drugega!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo zelenjavo, ki jo vidite.</t>
+          <t>Vaša naloga je narezati zelenjavo!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tudi zelenjava, tako kot sadje, priporočamo, da jo vsakodnevno uživate. Lahko jih postrežemo kot solata ali celo kot glavna jed. Če želite doseči svoj vsakdanji cilj, spremljajte svoje glavne obroke z zelenjavo!</t>
+          <t>Zelenjavo, tako kot sadje, je treba uživati ​​vsak dan. Postrežemo jih lahko kot solato ali celo kot glavno jed. Za izpolnitev vsakodnevnih ciljev svoje glavne obroke pospremite z zelenjavo!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo F&amp;V z rdečo barvo.</t>
+          <t>Vaša naloga je narezati sadje in zelenjavo rdeče barve!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Poznavanje skupine za prehrano mlečnih izdelkov. Kompleksnost naloge se poveča z vsako stopnjo: prvič, poudarek je na prepoznavanju in rezanju skupnih mlečnih izdelkov; Nato se učenci premaknejo na rezanje slike, ki prikazuje priporočeno vsakodnevno porabo mlečnih izdelkov; Končno prepoznajo in režejo sliko, ki poudarja ključno hranilo, ki jo najdemo v mlekarnah, to je kalcija.</t>
+          <t>Iščite mlečne izdelke! Narežite jih, da si prislužite točke in spoznate njihova ključna hranila, koliko bi jih morali dnevno zaužiti, njihovo velikost porcije in pametne načine, kako jih dodati v svojo prehrano.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo mlečne izdelke, ki jih vidite.</t>
+          <t>Vaša naloga je, da narežete mlečne izdelke!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Naredite mlekarne vsakodnevno navado! Vključite jih zgodaj v svoj dan in zgradite zdrave navade, ki trajajo!</t>
+          <t>Naj mlečni izdelki postanejo vsakodnevna navada! Vključite jih že zgodaj v dan in ustvarite zdrave navade, ki trajajo!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mlečni izdelki, kot so mleko, jogurt in sir, so hrana, ki jo priporočajo za vsakodnevno uživanje, saj zagotavljajo ključna hranila za vašo rast in razvoj.</t>
+          <t>Mlečni izdelki, kot so mleko, jogurt in sir, so živila, ki bi jih morali uživati ​​vsak dan, saj zagotavljajo ključna hranila za vašo rast in razvoj.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo priporočeno dnevno porabo mlečnih izdelkov, ki jih vidite.</t>
+          <t>Vaša naloga je, da narežete priporočeno dnevno porabo mlečnih izdelkov!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pojdite z mlekarji vsak dan!</t>
+          <t>Vsak dan uživajte mlečne izdelke!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Če želite doseči cilj 3-4 porcije mlečnih izdelkov na dan, poskusite vključiti kozarec mleka z zajtrkom, jogurtom kot prigrizek ali sirom s kosilom ali večerjo. Naj bo navada - obroke ali prigrizke združite z mlečno možnostjo, da ostanete močni in zdravi!</t>
+          <t>Če želite doseči cilj 3-4 obrokov mlečnih izdelkov na dan, poskusite vključiti kozarec mleka k zajtrku, jogurt kot prigrizek ali sir k kosilu ali večerji. Naj vam to postane navada – združite svoje obroke ali prigrizke z napitkom mlečnih izdelkov, da ostanete močni in zdravi!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Vaša naloga je prepoznati, kaj šteje za en del mlečnega izdelka. Izberite vse elemente, ki predstavljajo standardni mlečni del.</t>
+          <t>Vaša naloga je, da narežete tisto, kar šteje za eno porcijo mlečnega izdelka.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Vaša naloga je, da režete samo ključno hranilo, ki ga najdemo v mlečnih izdelkih. Upoštevajte, da: CA: kalcij, fe: železo.</t>
+          <t>Vaša naloga je razrezati ključno hranilo, ki ga najdemo v mlečnih izdelkih! Upoštevajte naslednje: Ca: kalcij, Fe: železo, vE: vitamin E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Mlečni izdelki so eden najboljših virov kalcija (CA), ki pomaga graditi močne kosti in zobe.</t>
+          <t>Mlečni izdelki so eden najboljših virov kalcija, ki pomaga graditi močne kosti in zobe.</t>
         </is>
       </c>
     </row>
